--- a/data/trans_dic/P19-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>21,0; 28,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>25,95; 35,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>34,06; 43,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>20,48; 35,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>36,18; 45,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>33,19; 42,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>39,16; 48,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>24,58; 38,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>29,54; 35,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>30,76; 37,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>38,06; 44,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>24,67; 34,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>23,66; 30,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>26,46; 33,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>31,03; 39,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>24,95; 36,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>29,58; 37,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>29,63; 37,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>38,18; 46,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>27,31; 37,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>27,57; 32,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>28,66; 34,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>35,74; 41,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>28,43; 35,45</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,4%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>22,65; 29,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>22,3; 29,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>25,03; 32,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>23,93; 32,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,35; 36,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,43; 37,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>32,48; 39,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>35,5; 42,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>27,1; 32,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>27,68; 32,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>29,94; 34,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>30,85; 36,46</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>23,25; 31,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>22,73; 30,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>26,28; 34,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>21,21; 31,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>33,04; 41,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,31; 36,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>32,55; 39,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>33,52; 40,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>29,26; 35,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>26,5; 32,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>30,47; 35,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>28,48; 34,86</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>20,01; 28,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>16,58; 25,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>22,86; 31,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>22,59; 29,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>25,37; 34,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>23,06; 32,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>26,97; 35,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>31,21; 37,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>24,12; 30,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>21,53; 27,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>26,27; 32,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>27,68; 32,42</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,94%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,88; 21,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>11,21; 17,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>14,44; 20,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,67; 23,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>15,13; 21,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>16,61; 22,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>20,17; 26,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>12,09; 20,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>15,81; 20,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,8; 19,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,58; 23,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>15,03; 20,81</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,42; 26,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,19; 26,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,66; 30,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,32; 27,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,83; 33,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>28,65; 31,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,94; 36,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,22; 32,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>27,15; 29,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,45; 28,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,69; 33,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>26,77; 29,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>30,03%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 35,63</t>
+          <t>20,81; 36,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 38,65</t>
+          <t>25,34; 39,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,67; 34,92</t>
+          <t>24,9; 36,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>30,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 36,88</t>
+          <t>24,96; 37,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,31; 37,88</t>
+          <t>17,81; 36,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,43; 35,45</t>
+          <t>23,39; 34,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,48%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,27</t>
+          <t>24,08; 32,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,5; 42,56</t>
+          <t>35,73; 42,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,85; 36,46</t>
+          <t>30,92; 36,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>29,18%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,21; 31,58</t>
+          <t>9,09; 30,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,52; 40,57</t>
+          <t>34,8; 51,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 34,86</t>
+          <t>18,13; 35,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>30,07%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,59; 29,4</t>
+          <t>22,82; 29,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,21; 37,24</t>
+          <t>31,47; 37,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,68; 32,42</t>
+          <t>27,84; 32,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>20,7%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,41</t>
+          <t>16,81; 26,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,49</t>
+          <t>13,94; 23,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,91</t>
+          <t>15,71; 24,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,67; 23,64</t>
+          <t>22,75; 30,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,08</t>
+          <t>18,2; 26,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,61; 22,6</t>
+          <t>21,77; 31,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,17; 26,65</t>
+          <t>25,56; 35,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,24</t>
+          <t>6,38; 26,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,81; 20,4</t>
+          <t>18,35; 24,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,09</t>
+          <t>18,86; 26,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 23,18</t>
+          <t>21,86; 28,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,81</t>
+          <t>11,13; 27,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>14,2%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9,65; 18,44</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 13,18</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10,18; 17,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 18,81</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10,25; 18,37</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 17,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 21,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 16,38</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 17,07</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 14,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 19,13</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 16,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34,54%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31,86%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>23,42; 26,53</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>23,19; 26,29</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>27,66; 30,61</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>24,32; 27,85</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19,36; 27,7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>29,83; 33,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>28,65; 31,85</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>32,94; 36,2</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>27,22; 32,14</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 32,79</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>27,15; 29,25</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>26,45; 28,67</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>30,69; 33,0</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>26,77; 29,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 29,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,54</t>
+          <t>21,17; 28,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,95; 35,13</t>
+          <t>26,22; 35,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,06; 43,3</t>
+          <t>33,84; 44,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,81; 36,93</t>
+          <t>20,57; 36,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,18; 45,05</t>
+          <t>35,91; 44,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,19; 42,65</t>
+          <t>33,35; 42,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,16; 48,92</t>
+          <t>39,18; 49,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,34; 39,53</t>
+          <t>25,67; 39,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 35,28</t>
+          <t>29,26; 35,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 37,54</t>
+          <t>30,83; 37,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,06; 44,97</t>
+          <t>38,1; 44,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,9; 36,05</t>
+          <t>24,79; 35,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,66; 30,43</t>
+          <t>24,06; 30,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,46; 33,47</t>
+          <t>25,94; 33,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,03; 39,31</t>
+          <t>30,95; 39,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,96; 37,25</t>
+          <t>24,99; 37,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,77</t>
+          <t>29,68; 37,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,63; 37,46</t>
+          <t>29,54; 37,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,18; 46,45</t>
+          <t>38,39; 46,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 36,0</t>
+          <t>19,68; 36,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,57; 32,57</t>
+          <t>27,7; 32,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 34,13</t>
+          <t>28,74; 33,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,74; 41,42</t>
+          <t>35,69; 41,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 34,43</t>
+          <t>23,3; 34,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,65; 29,94</t>
+          <t>22,77; 29,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 29,26</t>
+          <t>22,74; 29,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,03; 32,29</t>
+          <t>25,08; 32,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,35</t>
+          <t>23,81; 32,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,35; 36,74</t>
+          <t>29,55; 36,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,43; 37,76</t>
+          <t>30,93; 37,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,48; 39,9</t>
+          <t>32,22; 39,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,73; 42,79</t>
+          <t>35,74; 42,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,1; 32,11</t>
+          <t>27,38; 32,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,68; 32,69</t>
+          <t>27,83; 32,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,94; 34,97</t>
+          <t>30,08; 35,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,92; 36,6</t>
+          <t>30,92; 36,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 31,39</t>
+          <t>23,32; 31,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 30,08</t>
+          <t>22,05; 29,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 34,54</t>
+          <t>26,36; 34,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 30,88</t>
+          <t>9,54; 31,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 41,87</t>
+          <t>33,4; 41,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 36,4</t>
+          <t>28,02; 36,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 39,94</t>
+          <t>32,06; 40,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,8; 51,45</t>
+          <t>34,5; 48,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,26; 35,33</t>
+          <t>29,33; 35,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,5; 32,07</t>
+          <t>26,69; 32,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 35,92</t>
+          <t>30,41; 35,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 35,84</t>
+          <t>18,03; 35,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,01; 28,76</t>
+          <t>20,35; 28,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,58; 25,04</t>
+          <t>16,89; 25,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,77</t>
+          <t>23,14; 32,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,82; 29,57</t>
+          <t>22,31; 29,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,37; 34,29</t>
+          <t>25,36; 34,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,06; 32,23</t>
+          <t>22,96; 31,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,97; 35,69</t>
+          <t>26,89; 35,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,47; 37,47</t>
+          <t>31,34; 37,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 30,3</t>
+          <t>24,26; 30,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,53; 27,53</t>
+          <t>21,39; 27,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 32,34</t>
+          <t>26,37; 32,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,84; 32,51</t>
+          <t>27,73; 32,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 26,26</t>
+          <t>17,05; 26,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 23,36</t>
+          <t>13,63; 23,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,71; 24,3</t>
+          <t>15,38; 24,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,75; 30,51</t>
+          <t>23,27; 30,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 26,42</t>
+          <t>17,52; 26,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,77; 31,42</t>
+          <t>21,69; 31,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,56; 35,32</t>
+          <t>25,52; 34,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 26,8</t>
+          <t>7,59; 26,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,85</t>
+          <t>18,43; 24,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 26,25</t>
+          <t>18,97; 25,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,86; 28,48</t>
+          <t>21,87; 28,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,13; 27,0</t>
+          <t>11,08; 27,02</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,65; 18,44</t>
+          <t>9,36; 18,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 13,18</t>
+          <t>5,54; 13,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,65</t>
+          <t>10,16; 17,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,81</t>
+          <t>11,69; 18,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,25; 18,37</t>
+          <t>10,3; 18,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,1</t>
+          <t>9,64; 16,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,72</t>
+          <t>13,25; 21,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,62; 16,38</t>
+          <t>11,35; 16,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,92; 17,07</t>
+          <t>11,08; 17,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,04</t>
+          <t>8,87; 14,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,13</t>
+          <t>12,82; 19,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,14; 16,26</t>
+          <t>12,28; 16,48</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,42; 26,53</t>
+          <t>23,24; 26,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,19; 26,29</t>
+          <t>23,17; 26,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,66; 30,61</t>
+          <t>27,33; 30,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,36; 27,7</t>
+          <t>18,92; 27,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,83; 33,03</t>
+          <t>29,8; 32,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,65; 31,85</t>
+          <t>28,85; 32,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,94; 36,2</t>
+          <t>32,89; 36,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,82; 32,79</t>
+          <t>24,2; 32,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,15; 29,25</t>
+          <t>27,03; 29,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>26,45; 28,67</t>
+          <t>26,49; 28,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,69; 33,0</t>
+          <t>30,55; 32,94</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,77</t>
+          <t>24,28; 29,69</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 6 meses han ido al dentista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>122997</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>137606</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>162618</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>111031</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>188235</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>162923</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>174433</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>100805</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>311232</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>300530</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>337051</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>211836</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104615; 141806</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>119099; 159041</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>141936; 184919</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>81129; 145756</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>167868; 208212</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>143463; 184840</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>155056; 194222</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>79833; 123026</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>281314; 339844</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>272667; 329619</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>310582; 365103</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>174882; 248861</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>199429</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>203047</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>205632</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>130255</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>209007</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>204336</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>238488</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>151201</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>408436</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>407383</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>444120</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>281456</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>176932; 225817</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>177900; 228987</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>182771; 231031</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>105422; 159167</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>185651; 233744</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>180286; 228551</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>216351; 260472</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>100155; 185640</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>377024; 445097</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>372554; 440314</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>411829; 478406</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>216903; 319066</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>166511</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>176131</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>190431</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>148397</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>227904</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>243281</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>238665</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>210974</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>394415</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>419412</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>429096</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>359371</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>145453; 189831</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>155077; 201262</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>167830; 217101</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>127155; 171971</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>203791; 252135</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>219852; 269845</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>213110; 262553</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>192788; 231134</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>363768; 429874</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>387641; 456989</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>400250; 468633</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>331873; 387457</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>140987</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>195393</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>190037</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>192574</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>199968</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>234660</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274643</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>333561</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>360595</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>430053</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>464679</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>120828; 162298</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>135525; 181700</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>170278; 220802</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84478; 274564</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>172199; 215292</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>172397; 224387</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>208090; 260108</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>243909; 339922</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>303258; 364419</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>328265; 394742</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>393859; 465106</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>287235; 569973</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>94469</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89348</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>130808</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>144784</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>120405</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>123968</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>155126</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>185064</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>214875</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>213316</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>285934</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>329848</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>78686; 112082</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>72297; 107557</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>110601; 154147</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>124591; 163791</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>102222; 138936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>102813; 142379</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>133591; 177410</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>168837; 203530</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>191624; 239310</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>187371; 240630</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>257094; 318700</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>304194; 356377</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>62346</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>55400</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>96848</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>74460</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>93841</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>113756</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>103984</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>136806</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>149242</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>180182</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>200832</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>49895; 76755</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42216; 71509</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51419; 80959</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>84385; 111934</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>60090; 90703</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>76784; 112335</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>96401; 130743</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>46121; 162540</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>117154; 155705</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>125910; 172122</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>155763; 204698</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>107471; 262132</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>28179</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22437</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35041</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41361</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>46410</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>50539</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>69042</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>57563</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>74589</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>72976</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>104083</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>98925</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>19651; 38843</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13842; 32492</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26103; 45200</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32669; 50634</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>34403; 61025</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>37501; 65101</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>53036; 87993</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>47350; 67571</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>60271; 93470</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>56653; 89407</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>84266; 126476</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>85546; 114819</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2087</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2410</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>814918</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>844597</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>986348</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>862713</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1058996</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1078857</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1224171</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1084234</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1873914</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1923453</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2210518</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1946946</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>761136; 862782</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>793371; 893185</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>927665; 1038411</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>650025; 952093</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1006886; 1110122</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1026159; 1139075</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1165881; 1279347</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>878391; 1189142</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1798612; 1942870</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1849388; 2002245</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2120052; 2285927</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1715635; 2097718</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>